--- a/natmiOut/OldD7/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Fzd8</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.99351010084102</v>
+        <v>0.2633733333333333</v>
       </c>
       <c r="H2">
-        <v>4.99351010084102</v>
+        <v>0.7901199999999999</v>
       </c>
       <c r="I2">
-        <v>0.8359651370376613</v>
+        <v>0.03985693834931883</v>
       </c>
       <c r="J2">
-        <v>0.8359651370376613</v>
+        <v>0.03985693834931883</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.42264164903421</v>
+        <v>3.554362333333333</v>
       </c>
       <c r="N2">
-        <v>3.42264164903421</v>
+        <v>10.663087</v>
       </c>
       <c r="O2">
-        <v>0.2060730222461505</v>
+        <v>0.2019894022634335</v>
       </c>
       <c r="P2">
-        <v>0.2060730222461505</v>
+        <v>0.2019894022634335</v>
       </c>
       <c r="Q2">
-        <v>17.09099564601149</v>
+        <v>0.9361242556044442</v>
       </c>
       <c r="R2">
-        <v>17.09099564601149</v>
+        <v>8.425118300439999</v>
       </c>
       <c r="S2">
-        <v>0.1722698622817683</v>
+        <v>0.008050679153229431</v>
       </c>
       <c r="T2">
-        <v>0.1722698622817683</v>
+        <v>0.008050679153229429</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.99351010084102</v>
+        <v>0.2633733333333333</v>
       </c>
       <c r="H3">
-        <v>4.99351010084102</v>
+        <v>0.7901199999999999</v>
       </c>
       <c r="I3">
-        <v>0.8359651370376613</v>
+        <v>0.03985693834931883</v>
       </c>
       <c r="J3">
-        <v>0.8359651370376613</v>
+        <v>0.03985693834931883</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.4481873681165</v>
+        <v>11.625787</v>
       </c>
       <c r="N3">
-        <v>11.4481873681165</v>
+        <v>34.877361</v>
       </c>
       <c r="O3">
-        <v>0.6892812079388072</v>
+        <v>0.6606770910634029</v>
       </c>
       <c r="P3">
-        <v>0.6892812079388072</v>
+        <v>0.6606770910634029</v>
       </c>
       <c r="Q3">
-        <v>57.16663925901031</v>
+        <v>3.061922274813333</v>
       </c>
       <c r="R3">
-        <v>57.16663925901031</v>
+        <v>27.55730047332</v>
       </c>
       <c r="S3">
-        <v>0.5762150594520496</v>
+        <v>0.02633256608732135</v>
       </c>
       <c r="T3">
-        <v>0.5762150594520496</v>
+        <v>0.02633256608732135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.99351010084102</v>
+        <v>0.2633733333333333</v>
       </c>
       <c r="H4">
-        <v>4.99351010084102</v>
+        <v>0.7901199999999999</v>
       </c>
       <c r="I4">
-        <v>0.8359651370376613</v>
+        <v>0.03985693834931883</v>
       </c>
       <c r="J4">
-        <v>0.8359651370376613</v>
+        <v>0.03985693834931883</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.73804880551705</v>
+        <v>0.02609533333333333</v>
       </c>
       <c r="N4">
-        <v>1.73804880551705</v>
+        <v>0.07828599999999999</v>
       </c>
       <c r="O4">
-        <v>0.1046457698150422</v>
+        <v>0.001482961017348462</v>
       </c>
       <c r="P4">
-        <v>0.1046457698150422</v>
+        <v>0.001482961017348462</v>
       </c>
       <c r="Q4">
-        <v>8.678964266104058</v>
+        <v>0.006872814924444443</v>
       </c>
       <c r="R4">
-        <v>8.678964266104058</v>
+        <v>0.06185533431999999</v>
       </c>
       <c r="S4">
-        <v>0.08748021530384333</v>
+        <v>5.910628584290077E-05</v>
       </c>
       <c r="T4">
-        <v>0.08748021530384333</v>
+        <v>5.910628584290075E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.506145299160598</v>
+        <v>0.2633733333333333</v>
       </c>
       <c r="H5">
-        <v>0.506145299160598</v>
+        <v>0.7901199999999999</v>
       </c>
       <c r="I5">
-        <v>0.08473394783010341</v>
+        <v>0.03985693834931883</v>
       </c>
       <c r="J5">
-        <v>0.08473394783010341</v>
+        <v>0.03985693834931883</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.42264164903421</v>
+        <v>2.390531666666666</v>
       </c>
       <c r="N5">
-        <v>3.42264164903421</v>
+        <v>7.171595</v>
       </c>
       <c r="O5">
-        <v>0.2060730222461505</v>
+        <v>0.1358505456558151</v>
       </c>
       <c r="P5">
-        <v>0.2060730222461505</v>
+        <v>0.1358505456558151</v>
       </c>
       <c r="Q5">
-        <v>1.732353981369943</v>
+        <v>0.6296022934888887</v>
       </c>
       <c r="R5">
-        <v>1.732353981369943</v>
+        <v>5.666420641399999</v>
       </c>
       <c r="S5">
-        <v>0.01746138071619706</v>
+        <v>0.005414586822925145</v>
       </c>
       <c r="T5">
-        <v>0.01746138071619706</v>
+        <v>0.005414586822925145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.506145299160598</v>
+        <v>5.185377</v>
       </c>
       <c r="H6">
-        <v>0.506145299160598</v>
+        <v>15.556131</v>
       </c>
       <c r="I6">
-        <v>0.08473394783010341</v>
+        <v>0.7847159345680752</v>
       </c>
       <c r="J6">
-        <v>0.08473394783010341</v>
+        <v>0.7847159345680751</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.4481873681165</v>
+        <v>3.554362333333333</v>
       </c>
       <c r="N6">
-        <v>11.4481873681165</v>
+        <v>10.663087</v>
       </c>
       <c r="O6">
-        <v>0.6892812079388072</v>
+        <v>0.2019894022634335</v>
       </c>
       <c r="P6">
-        <v>0.6892812079388072</v>
+        <v>0.2019894022634335</v>
       </c>
       <c r="Q6">
-        <v>5.794446220281905</v>
+        <v>18.430708692933</v>
       </c>
       <c r="R6">
-        <v>5.794446220281905</v>
+        <v>165.876378236397</v>
       </c>
       <c r="S6">
-        <v>0.05840551791375755</v>
+        <v>0.1585043025699971</v>
       </c>
       <c r="T6">
-        <v>0.05840551791375755</v>
+        <v>0.1585043025699971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.506145299160598</v>
+        <v>5.185377</v>
       </c>
       <c r="H7">
-        <v>0.506145299160598</v>
+        <v>15.556131</v>
       </c>
       <c r="I7">
-        <v>0.08473394783010341</v>
+        <v>0.7847159345680752</v>
       </c>
       <c r="J7">
-        <v>0.08473394783010341</v>
+        <v>0.7847159345680751</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.73804880551705</v>
+        <v>11.625787</v>
       </c>
       <c r="N7">
-        <v>1.73804880551705</v>
+        <v>34.877361</v>
       </c>
       <c r="O7">
-        <v>0.1046457698150422</v>
+        <v>0.6606770910634029</v>
       </c>
       <c r="P7">
-        <v>0.1046457698150422</v>
+        <v>0.6606770910634029</v>
       </c>
       <c r="Q7">
-        <v>0.8797052326241473</v>
+        <v>60.284088516699</v>
       </c>
       <c r="R7">
-        <v>0.8797052326241473</v>
+        <v>542.5567966502911</v>
       </c>
       <c r="S7">
-        <v>0.008867049200148797</v>
+        <v>0.5184438409615355</v>
       </c>
       <c r="T7">
-        <v>0.008867049200148797</v>
+        <v>0.5184438409615354</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.473691907920933</v>
+        <v>5.185377</v>
       </c>
       <c r="H8">
-        <v>0.473691907920933</v>
+        <v>15.556131</v>
       </c>
       <c r="I8">
-        <v>0.07930091513223542</v>
+        <v>0.7847159345680752</v>
       </c>
       <c r="J8">
-        <v>0.07930091513223542</v>
+        <v>0.7847159345680751</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.42264164903421</v>
+        <v>0.02609533333333333</v>
       </c>
       <c r="N8">
-        <v>3.42264164903421</v>
+        <v>0.07828599999999999</v>
       </c>
       <c r="O8">
-        <v>0.2060730222461505</v>
+        <v>0.001482961017348462</v>
       </c>
       <c r="P8">
-        <v>0.2060730222461505</v>
+        <v>0.001482961017348462</v>
       </c>
       <c r="Q8">
-        <v>1.621277652860663</v>
+        <v>0.135314141274</v>
       </c>
       <c r="R8">
-        <v>1.621277652860663</v>
+        <v>1.217827271466</v>
       </c>
       <c r="S8">
-        <v>0.01634177924818524</v>
+        <v>0.001163703140656622</v>
       </c>
       <c r="T8">
-        <v>0.01634177924818524</v>
+        <v>0.001163703140656621</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.473691907920933</v>
+        <v>5.185377</v>
       </c>
       <c r="H9">
-        <v>0.473691907920933</v>
+        <v>15.556131</v>
       </c>
       <c r="I9">
-        <v>0.07930091513223542</v>
+        <v>0.7847159345680752</v>
       </c>
       <c r="J9">
-        <v>0.07930091513223542</v>
+        <v>0.7847159345680751</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.4481873681165</v>
+        <v>2.390531666666666</v>
       </c>
       <c r="N9">
-        <v>11.4481873681165</v>
+        <v>7.171595</v>
       </c>
       <c r="O9">
-        <v>0.6892812079388072</v>
+        <v>0.1358505456558151</v>
       </c>
       <c r="P9">
-        <v>0.6892812079388072</v>
+        <v>0.1358505456558151</v>
       </c>
       <c r="Q9">
-        <v>5.42291371663943</v>
+        <v>12.395807922105</v>
       </c>
       <c r="R9">
-        <v>5.42291371663943</v>
+        <v>111.562271298945</v>
       </c>
       <c r="S9">
-        <v>0.05466063057300007</v>
+        <v>0.1066040878958859</v>
       </c>
       <c r="T9">
-        <v>0.05466063057300007</v>
+        <v>0.1066040878958859</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.595363</v>
+      </c>
+      <c r="H10">
+        <v>1.786089</v>
+      </c>
+      <c r="I10">
+        <v>0.09009775623879478</v>
+      </c>
+      <c r="J10">
+        <v>0.09009775623879476</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.554362333333333</v>
+      </c>
+      <c r="N10">
+        <v>10.663087</v>
+      </c>
+      <c r="O10">
+        <v>0.2019894022634335</v>
+      </c>
+      <c r="P10">
+        <v>0.2019894022634335</v>
+      </c>
+      <c r="Q10">
+        <v>2.116135821860333</v>
+      </c>
+      <c r="R10">
+        <v>19.045222396743</v>
+      </c>
+      <c r="S10">
+        <v>0.01819879192795069</v>
+      </c>
+      <c r="T10">
+        <v>0.01819879192795069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.595363</v>
+      </c>
+      <c r="H11">
+        <v>1.786089</v>
+      </c>
+      <c r="I11">
+        <v>0.09009775623879478</v>
+      </c>
+      <c r="J11">
+        <v>0.09009775623879476</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.625787</v>
+      </c>
+      <c r="N11">
+        <v>34.877361</v>
+      </c>
+      <c r="O11">
+        <v>0.6606770910634029</v>
+      </c>
+      <c r="P11">
+        <v>0.6606770910634029</v>
+      </c>
+      <c r="Q11">
+        <v>6.921563425681001</v>
+      </c>
+      <c r="R11">
+        <v>62.29407083112901</v>
+      </c>
+      <c r="S11">
+        <v>0.05952552350318649</v>
+      </c>
+      <c r="T11">
+        <v>0.05952552350318648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.595363</v>
+      </c>
+      <c r="H12">
+        <v>1.786089</v>
+      </c>
+      <c r="I12">
+        <v>0.09009775623879478</v>
+      </c>
+      <c r="J12">
+        <v>0.09009775623879476</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02609533333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.07828599999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.001482961017348462</v>
+      </c>
+      <c r="P12">
+        <v>0.001482961017348462</v>
+      </c>
+      <c r="Q12">
+        <v>0.01553619593933333</v>
+      </c>
+      <c r="R12">
+        <v>0.139825763454</v>
+      </c>
+      <c r="S12">
+        <v>0.0001336114602526968</v>
+      </c>
+      <c r="T12">
+        <v>0.0001336114602526968</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.595363</v>
+      </c>
+      <c r="H13">
+        <v>1.786089</v>
+      </c>
+      <c r="I13">
+        <v>0.09009775623879478</v>
+      </c>
+      <c r="J13">
+        <v>0.09009775623879476</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.390531666666666</v>
+      </c>
+      <c r="N13">
+        <v>7.171595</v>
+      </c>
+      <c r="O13">
+        <v>0.1358505456558151</v>
+      </c>
+      <c r="P13">
+        <v>0.1358505456558151</v>
+      </c>
+      <c r="Q13">
+        <v>1.423234104661667</v>
+      </c>
+      <c r="R13">
+        <v>12.809106941955</v>
+      </c>
+      <c r="S13">
+        <v>0.01223982934740489</v>
+      </c>
+      <c r="T13">
+        <v>0.01223982934740489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5638536666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.691561</v>
+      </c>
+      <c r="I14">
+        <v>0.08532937084381123</v>
+      </c>
+      <c r="J14">
+        <v>0.0853293708438112</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.554362333333333</v>
+      </c>
+      <c r="N14">
+        <v>10.663087</v>
+      </c>
+      <c r="O14">
+        <v>0.2019894022634335</v>
+      </c>
+      <c r="P14">
+        <v>0.2019894022634335</v>
+      </c>
+      <c r="Q14">
+        <v>2.004140234311889</v>
+      </c>
+      <c r="R14">
+        <v>18.037262108807</v>
+      </c>
+      <c r="S14">
+        <v>0.01723562861225628</v>
+      </c>
+      <c r="T14">
+        <v>0.01723562861225628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5638536666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.691561</v>
+      </c>
+      <c r="I15">
+        <v>0.08532937084381123</v>
+      </c>
+      <c r="J15">
+        <v>0.0853293708438112</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.625787</v>
+      </c>
+      <c r="N15">
+        <v>34.877361</v>
+      </c>
+      <c r="O15">
+        <v>0.6606770910634029</v>
+      </c>
+      <c r="P15">
+        <v>0.6606770910634029</v>
+      </c>
+      <c r="Q15">
+        <v>6.555242627835668</v>
+      </c>
+      <c r="R15">
+        <v>58.997183650521</v>
+      </c>
+      <c r="S15">
+        <v>0.05637516051135955</v>
+      </c>
+      <c r="T15">
+        <v>0.05637516051135953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.473691907920933</v>
-      </c>
-      <c r="H10">
-        <v>0.473691907920933</v>
-      </c>
-      <c r="I10">
-        <v>0.07930091513223542</v>
-      </c>
-      <c r="J10">
-        <v>0.07930091513223542</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.73804880551705</v>
-      </c>
-      <c r="N10">
-        <v>1.73804880551705</v>
-      </c>
-      <c r="O10">
-        <v>0.1046457698150422</v>
-      </c>
-      <c r="P10">
-        <v>0.1046457698150422</v>
-      </c>
-      <c r="Q10">
-        <v>0.8232996547450701</v>
-      </c>
-      <c r="R10">
-        <v>0.8232996547450701</v>
-      </c>
-      <c r="S10">
-        <v>0.008298505311050105</v>
-      </c>
-      <c r="T10">
-        <v>0.008298505311050105</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5638536666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.691561</v>
+      </c>
+      <c r="I16">
+        <v>0.08532937084381123</v>
+      </c>
+      <c r="J16">
+        <v>0.0853293708438112</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02609533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.07828599999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.001482961017348462</v>
+      </c>
+      <c r="P16">
+        <v>0.001482961017348462</v>
+      </c>
+      <c r="Q16">
+        <v>0.01471394938288889</v>
+      </c>
+      <c r="R16">
+        <v>0.132425544446</v>
+      </c>
+      <c r="S16">
+        <v>0.0001265401305962424</v>
+      </c>
+      <c r="T16">
+        <v>0.0001265401305962424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5638536666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.691561</v>
+      </c>
+      <c r="I17">
+        <v>0.08532937084381123</v>
+      </c>
+      <c r="J17">
+        <v>0.0853293708438112</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.390531666666666</v>
+      </c>
+      <c r="N17">
+        <v>7.171595</v>
+      </c>
+      <c r="O17">
+        <v>0.1358505456558151</v>
+      </c>
+      <c r="P17">
+        <v>0.1358505456558151</v>
+      </c>
+      <c r="Q17">
+        <v>1.347910045532778</v>
+      </c>
+      <c r="R17">
+        <v>12.131190409795</v>
+      </c>
+      <c r="S17">
+        <v>0.01159204158959916</v>
+      </c>
+      <c r="T17">
+        <v>0.01159204158959915</v>
       </c>
     </row>
   </sheetData>
